--- a/Instances/G0041254_Lumpy_b4_fe0_en_rk0_ll2_l40_HTrue_c10.xlsx
+++ b/Instances/G0041254_Lumpy_b4_fe0_en_rk0_ll2_l40_HTrue_c10.xlsx
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
